--- a/call-of-cthulhu-kadokawa/checklist.xlsx
+++ b/call-of-cthulhu-kadokawa/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{718A014C-A6AF-D14F-9C41-9153D7636C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5F4475-9DA8-0F4B-ACA7-296706C5F533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>year</t>
   </si>
@@ -127,6 +127,63 @@
   </si>
   <si>
     <t>intro_to_cthulhu.jpg</t>
+  </si>
+  <si>
+    <t>d20_rulebook.jpg</t>
+  </si>
+  <si>
+    <t>コール オブ クトゥルフ d20</t>
+  </si>
+  <si>
+    <t>Call of Cthulhu d20</t>
+  </si>
+  <si>
+    <t>arkham.jpg</t>
+  </si>
+  <si>
+    <t>H.P.ラヴクラフト アーカム</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft's Arkham</t>
+  </si>
+  <si>
+    <t>クトゥルフ・ダークエイジ</t>
+  </si>
+  <si>
+    <t>Cthulhu Dark Ages</t>
+  </si>
+  <si>
+    <t>dark_ages.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG 比叡山炎上</t>
+  </si>
+  <si>
+    <t>hieizan_flame.jpg</t>
+  </si>
+  <si>
+    <t>Hieizan Flame</t>
+  </si>
+  <si>
+    <t>seven_phantom_stories.jpg</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>Seven Phantom Stories</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPGシナリオ集 七つの怪談</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG マレウス・モンストロルム</t>
+  </si>
+  <si>
+    <t>Malleus Monstrorum</t>
+  </si>
+  <si>
+    <t>malleus_monstrorum.jpg</t>
   </si>
 </sst>
 </file>
@@ -478,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714E191-E70D-984A-B485-A0578E9C9933}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,6 +708,126 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2003</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2005</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2007</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2008</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/call-of-cthulhu-kadokawa/checklist.xlsx
+++ b/call-of-cthulhu-kadokawa/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5F4475-9DA8-0F4B-ACA7-296706C5F533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{012C57F6-D69A-6C4A-A6F6-E67DFEB5958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t>year</t>
   </si>
@@ -184,6 +184,69 @@
   </si>
   <si>
     <t>malleus_monstrorum.jpg</t>
+  </si>
+  <si>
+    <t>dreamlands.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG ラヴクラフトの幻夢境</t>
+  </si>
+  <si>
+    <t>H.P Lovecraft's Dreamlands</t>
+  </si>
+  <si>
+    <t>cthulhu_2010.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG クトゥルフ2010</t>
+  </si>
+  <si>
+    <t>Cthulhu 2010</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG インスマスからの脱出</t>
+  </si>
+  <si>
+    <t>Escape from Innsmouth</t>
+  </si>
+  <si>
+    <t>escape_from_innsmouth.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG ダニッチの怪</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft's Dunwich</t>
+  </si>
+  <si>
+    <t>dunwich.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG クトゥルフカルト・ナウ</t>
+  </si>
+  <si>
+    <t>Cthulhu Cults Now</t>
+  </si>
+  <si>
+    <t>cthulhu_cults_now.jpg</t>
+  </si>
+  <si>
+    <t>keepers_companion_v2.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG キーパーコンパニオン 改訂新版</t>
+  </si>
+  <si>
+    <t>The Keeper's Companion Revised Edition</t>
+  </si>
+  <si>
+    <t>fragments.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG クトゥルフ・フラグメント</t>
+  </si>
+  <si>
+    <t>Cthulhu Fragments</t>
   </si>
 </sst>
 </file>
@@ -535,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714E191-E70D-984A-B485-A0578E9C9933}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -828,6 +891,146 @@
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2009</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2010</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2011</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2012</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2013</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2015</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/call-of-cthulhu-kadokawa/checklist.xlsx
+++ b/call-of-cthulhu-kadokawa/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{012C57F6-D69A-6C4A-A6F6-E67DFEB5958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C217A5C4-3FE0-AF41-8BD1-70977E7C5526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
   <si>
     <t>year</t>
   </si>
@@ -247,6 +247,144 @@
   </si>
   <si>
     <t>Cthulhu Fragments</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG サプリメント クトゥルフ2015</t>
+  </si>
+  <si>
+    <t>Cthulhu 2015</t>
+  </si>
+  <si>
+    <t>cthulhu_2015.jpg</t>
+  </si>
+  <si>
+    <t>kingsport.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG キングスポートのすべて</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft's Kingsport</t>
+  </si>
+  <si>
+    <t>modular_cthulhu.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG モジュラー・クトゥルフ</t>
+  </si>
+  <si>
+    <t>Modular Cthulhu</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG クトゥルフ・コデックス</t>
+  </si>
+  <si>
+    <t>Cthulhu Codex</t>
+  </si>
+  <si>
+    <t>cthulhu_codex.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフと帝国リプレイ 白無垢の仮面</t>
+  </si>
+  <si>
+    <t>White Innocent Mask</t>
+  </si>
+  <si>
+    <t>white_innocent_mask.jpg</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPGリプレイ るるいえあんてぃーく</t>
+  </si>
+  <si>
+    <t>R'lyeh Antique</t>
+  </si>
+  <si>
+    <t>rlyeh_antique.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話ＴＲＰＧリプレイ みなせゼミの名状しがたき夏休み</t>
+  </si>
+  <si>
+    <t>Minase Seminar Nameless Summer Vacation</t>
+  </si>
+  <si>
+    <t>summer_vacation.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPGリプレイ るるいえはいすくーる</t>
+  </si>
+  <si>
+    <t>R'lyeh High School</t>
+  </si>
+  <si>
+    <t>rlyeh_high_school.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPGリプレイ るるいえばけーしょん</t>
+  </si>
+  <si>
+    <t>rlyeh_vacation.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPGリプレイ るるいえばーすでい</t>
+  </si>
+  <si>
+    <t>R'lyeh Birthday</t>
+  </si>
+  <si>
+    <t>R'lyeh Vacation</t>
+  </si>
+  <si>
+    <t>rlyeh_birthday.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPGリプレイ るるいえとらべらーず</t>
+  </si>
+  <si>
+    <t>R'lyeh Travelers</t>
+  </si>
+  <si>
+    <t>rlyeh_travelers.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG リプレイ るるいえぐりもあーる</t>
+  </si>
+  <si>
+    <t>R'lyeh Grimoire</t>
+  </si>
+  <si>
+    <t>rlyeh_grimoire.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG リプレイ るるいえがすらいと</t>
+  </si>
+  <si>
+    <t>R'lyeh Gaslight</t>
+  </si>
+  <si>
+    <t>rlyeh_gaslight.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG リプレイ 御津門学園ゲーム部の冒涜的な活動</t>
+  </si>
+  <si>
+    <t>Blasphemy activities of the Mitsumon Gakuen Game Club</t>
+  </si>
+  <si>
+    <t>blasphemous_activities.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG リプレイ るるいえみつかどにっく</t>
+  </si>
+  <si>
+    <t>R'lyeh Mitsukado Nikku</t>
+  </si>
+  <si>
+    <t>rlyeh_mitsukado_nikku.jpg</t>
   </si>
 </sst>
 </file>
@@ -598,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714E191-E70D-984A-B485-A0578E9C9933}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,19 +771,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -653,19 +791,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -673,19 +811,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -693,19 +831,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -713,19 +851,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -733,19 +871,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -753,19 +891,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -773,59 +911,59 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -833,59 +971,59 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -896,19 +1034,19 @@
         <v>2009</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -933,59 +1071,59 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -993,45 +1131,348 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
+        <v>2012</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2012</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2013</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2013</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2013</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2014</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2014</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2014</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>2015</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C30" t="s">
         <v>70</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E30" t="s">
         <v>68</v>
       </c>
-      <c r="F21" t="s">
-        <v>16</v>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2015</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2015</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2016</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2016</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2017</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2019</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
+    <sortCondition ref="A2:A36"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/call-of-cthulhu-kadokawa/checklist.xlsx
+++ b/call-of-cthulhu-kadokawa/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C217A5C4-3FE0-AF41-8BD1-70977E7C5526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A22B7E-8B32-DB4B-8BEB-8B4B6F996E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="120">
   <si>
     <t>year</t>
   </si>
@@ -385,6 +385,15 @@
   </si>
   <si>
     <t>rlyeh_mitsukado_nikku.jpg</t>
+  </si>
+  <si>
+    <t>新クトゥルフ神話TRPG マレウス・モンストロルム Vol.1 クリーチャー編</t>
+  </si>
+  <si>
+    <t>Maleus Monstrolum Vol.1 Creature Edition</t>
+  </si>
+  <si>
+    <t>maleus_monstrorum_vol1.jpg</t>
   </si>
 </sst>
 </file>
@@ -736,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714E191-E70D-984A-B485-A0578E9C9933}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:F36"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1469,6 +1478,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2021</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
     <sortCondition ref="A2:A36"/>

--- a/call-of-cthulhu-kadokawa/checklist.xlsx
+++ b/call-of-cthulhu-kadokawa/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A22B7E-8B32-DB4B-8BEB-8B4B6F996E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8C12D7-8CCB-2547-AF02-04620ED92865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="123">
   <si>
     <t>year</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>maleus_monstrorum_vol1.jpg</t>
+  </si>
+  <si>
+    <t>新クトゥルフ神話TRPG クトゥルフ2020</t>
+  </si>
+  <si>
+    <t>New Cthulhu Myth TRPG Cthulhu 2020</t>
+  </si>
+  <si>
+    <t>cthulhu_2020.jpg</t>
   </si>
 </sst>
 </file>
@@ -745,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714E191-E70D-984A-B485-A0578E9C9933}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1480,21 +1489,41 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2021</v>
+      </c>
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
         <v>119</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>16</v>
       </c>
     </row>

--- a/call-of-cthulhu-kadokawa/checklist.xlsx
+++ b/call-of-cthulhu-kadokawa/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8C12D7-8CCB-2547-AF02-04620ED92865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A690C6D0-D61A-AD4A-AC64-9A9522E0290D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="126">
   <si>
     <t>year</t>
   </si>
@@ -403,6 +403,15 @@
   </si>
   <si>
     <t>cthulhu_2020.jpg</t>
+  </si>
+  <si>
+    <t>新クトゥルフ神話TRPG マレウス・モンストロルム Vol.2 神格編</t>
+  </si>
+  <si>
+    <t>Maleus Monstrolum Vol.2 Diety Edition</t>
+  </si>
+  <si>
+    <t>maleus_monstrorum_vol2.jpg</t>
   </si>
 </sst>
 </file>
@@ -754,15 +763,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714E191-E70D-984A-B485-A0578E9C9933}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="2" max="2" width="69.83203125" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" customWidth="1"/>
   </cols>
@@ -1527,6 +1536,26 @@
         <v>16</v>
       </c>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2021</v>
+      </c>
+      <c r="B39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
     <sortCondition ref="A2:A36"/>

--- a/call-of-cthulhu-kadokawa/checklist.xlsx
+++ b/call-of-cthulhu-kadokawa/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A690C6D0-D61A-AD4A-AC64-9A9522E0290D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46D11E0-C3D0-8747-8ED6-2F2E574246AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
   <si>
     <t>year</t>
   </si>
@@ -412,6 +412,15 @@
   </si>
   <si>
     <t>maleus_monstrorum_vol2.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG シナリオ集 星辰正しき刻</t>
+  </si>
+  <si>
+    <t>The Stars Are Right!</t>
+  </si>
+  <si>
+    <t>stars_are_right.jpg</t>
   </si>
 </sst>
 </file>
@@ -763,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714E191-E70D-984A-B485-A0578E9C9933}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F39"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1478,59 +1487,59 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
@@ -1541,24 +1550,44 @@
         <v>2021</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2021</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
         <v>125</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
-    <sortCondition ref="A2:A36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/call-of-cthulhu-kadokawa/checklist.xlsx
+++ b/call-of-cthulhu-kadokawa/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46D11E0-C3D0-8747-8ED6-2F2E574246AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F4C4152-E0CF-A845-B01A-A223266FF827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
   </bookViews>
@@ -390,9 +390,6 @@
     <t>新クトゥルフ神話TRPG マレウス・モンストロルム Vol.1 クリーチャー編</t>
   </si>
   <si>
-    <t>Maleus Monstrolum Vol.1 Creature Edition</t>
-  </si>
-  <si>
     <t>maleus_monstrorum_vol1.jpg</t>
   </si>
   <si>
@@ -408,9 +405,6 @@
     <t>新クトゥルフ神話TRPG マレウス・モンストロルム Vol.2 神格編</t>
   </si>
   <si>
-    <t>Maleus Monstrolum Vol.2 Diety Edition</t>
-  </si>
-  <si>
     <t>maleus_monstrorum_vol2.jpg</t>
   </si>
   <si>
@@ -421,6 +415,12 @@
   </si>
   <si>
     <t>stars_are_right.jpg</t>
+  </si>
+  <si>
+    <t>Malleus Monstrorum Vol.1 Creature Edition</t>
+  </si>
+  <si>
+    <t>Malleus Monstrorum Vol.2 Diety Edition</t>
   </si>
 </sst>
 </file>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714E191-E70D-984A-B485-A0578E9C9933}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1490,16 +1490,16 @@
         <v>2018</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
         <v>44</v>
@@ -1530,16 +1530,16 @@
         <v>2020</v>
       </c>
       <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
         <v>120</v>
-      </c>
-      <c r="C38" t="s">
-        <v>121</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
@@ -1553,13 +1553,13 @@
         <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -1570,16 +1570,16 @@
         <v>2021</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>

--- a/call-of-cthulhu-kadokawa/checklist.xlsx
+++ b/call-of-cthulhu-kadokawa/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F4C4152-E0CF-A845-B01A-A223266FF827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CA5951-9703-504A-849B-C02F790230E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="138">
   <si>
     <t>year</t>
   </si>
@@ -421,6 +421,33 @@
   </si>
   <si>
     <t>Malleus Monstrorum Vol.2 Diety Edition</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG アーカムのすべて 完全版</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft's Arkham: Complete Edition</t>
+  </si>
+  <si>
+    <t>lovecrafts_arkham.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG クトゥルフ・タブレット</t>
+  </si>
+  <si>
+    <t>Cthulhu Tablet</t>
+  </si>
+  <si>
+    <t>cthulhu_tablet.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG シナリオ集 アカシック13</t>
+  </si>
+  <si>
+    <t>Akashic 13</t>
+  </si>
+  <si>
+    <t>akashic_13.jpg</t>
   </si>
 </sst>
 </file>
@@ -772,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714E191-E70D-984A-B485-A0578E9C9933}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1367,19 +1394,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -1390,16 +1417,16 @@
         <v>2015</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -1410,39 +1437,39 @@
         <v>2015</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1450,16 +1477,16 @@
         <v>2016</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -1467,19 +1494,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -1487,107 +1514,167 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
+        <v>2019</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2020</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>2021</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2021</v>
+      </c>
+      <c r="B43" t="s">
         <v>122</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
         <v>128</v>
       </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
         <v>123</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F43" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
-    <sortCondition ref="A2:A37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/call-of-cthulhu-kadokawa/checklist.xlsx
+++ b/call-of-cthulhu-kadokawa/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CA5951-9703-504A-849B-C02F790230E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E840BC-96F9-6341-9091-E53E72D8F25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="141">
   <si>
     <t>year</t>
   </si>
@@ -448,6 +448,15 @@
   </si>
   <si>
     <t>akashic_13.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG クトゥルフ・バイ・ガスライト</t>
+  </si>
+  <si>
+    <t>Cthulhu by Gaslight</t>
+  </si>
+  <si>
+    <t>cthulhu_by_gaslight.jpg</t>
   </si>
 </sst>
 </file>
@@ -799,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714E191-E70D-984A-B485-A0578E9C9933}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1414,19 +1423,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -1437,16 +1446,16 @@
         <v>2015</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -1457,39 +1466,39 @@
         <v>2015</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1497,16 +1506,16 @@
         <v>2016</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -1514,19 +1523,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -1534,22 +1543,22 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1557,16 +1566,16 @@
         <v>2018</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F38" t="s">
         <v>44</v>
@@ -1574,22 +1583,22 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1597,36 +1606,36 @@
         <v>2019</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -1634,19 +1643,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
@@ -1657,24 +1666,44 @@
         <v>2021</v>
       </c>
       <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2021</v>
+      </c>
+      <c r="B44" t="s">
         <v>122</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>128</v>
       </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
         <v>123</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
-    <sortCondition ref="A2:A39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F40">
+    <sortCondition ref="A2:A40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/call-of-cthulhu-kadokawa/checklist.xlsx
+++ b/call-of-cthulhu-kadokawa/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E840BC-96F9-6341-9091-E53E72D8F25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF21D7D-EA5F-BA42-941B-9595EF02740C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="144">
   <si>
     <t>year</t>
   </si>
@@ -457,6 +457,15 @@
   </si>
   <si>
     <t>cthulhu_by_gaslight.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ・ワールドツアー 忌まわしき古代遺跡</t>
+  </si>
+  <si>
+    <t>brooding_ruins.jpg</t>
+  </si>
+  <si>
+    <t>Cthulhu World Tour Brooding Ruins</t>
   </si>
 </sst>
 </file>
@@ -808,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714E191-E70D-984A-B485-A0578E9C9933}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1223,19 +1232,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -1246,16 +1255,16 @@
         <v>2012</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -1266,39 +1275,39 @@
         <v>2012</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1306,16 +1315,16 @@
         <v>2013</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -1326,36 +1335,36 @@
         <v>2013</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
         <v>86</v>
@@ -1366,16 +1375,16 @@
         <v>2014</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F28" t="s">
         <v>86</v>
@@ -1386,16 +1395,16 @@
         <v>2014</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
         <v>86</v>
@@ -1406,19 +1415,19 @@
         <v>2014</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1426,16 +1435,16 @@
         <v>2014</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -1443,19 +1452,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -1466,16 +1475,16 @@
         <v>2015</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -1486,39 +1495,39 @@
         <v>2015</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1526,16 +1535,16 @@
         <v>2016</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -1543,19 +1552,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -1563,22 +1572,22 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1586,16 +1595,16 @@
         <v>2018</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F39" t="s">
         <v>44</v>
@@ -1603,22 +1612,22 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1626,36 +1635,36 @@
         <v>2019</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
@@ -1663,19 +1672,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -1686,24 +1695,44 @@
         <v>2021</v>
       </c>
       <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2021</v>
+      </c>
+      <c r="B45" t="s">
         <v>122</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>128</v>
       </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
         <v>123</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F40">
-    <sortCondition ref="A2:A40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
+    <sortCondition ref="A2:A41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/call-of-cthulhu-kadokawa/checklist.xlsx
+++ b/call-of-cthulhu-kadokawa/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF21D7D-EA5F-BA42-941B-9595EF02740C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D822980E-498C-8B42-98BE-5BA26DDEFF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="151">
   <si>
     <t>year</t>
   </si>
@@ -465,7 +465,28 @@
     <t>brooding_ruins.jpg</t>
   </si>
   <si>
-    <t>Cthulhu World Tour Brooding Ruins</t>
+    <t>クトゥルフ・ワールドツアー クトゥルフ・ホラーショウ</t>
+  </si>
+  <si>
+    <t>Cthulhu World Tour: Cthulhu Horror Show</t>
+  </si>
+  <si>
+    <t>Cthulhu World Tour: Brooding Ruins</t>
+  </si>
+  <si>
+    <t>Arclight</t>
+  </si>
+  <si>
+    <t>cthulhu_horror_show.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ・ワールドツアー　ナチス邪神帝国の陰謀</t>
+  </si>
+  <si>
+    <t>Cthulhu World Tour: Nazi Evil God Empire Conspiracy</t>
+  </si>
+  <si>
+    <t>nazi_evil_god.jpg</t>
   </si>
 </sst>
 </file>
@@ -817,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714E191-E70D-984A-B485-A0578E9C9933}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1238,10 +1259,10 @@
         <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="E21" t="s">
         <v>142</v>
@@ -1252,19 +1273,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -1272,19 +1293,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -1295,36 +1316,36 @@
         <v>2012</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -1332,22 +1353,22 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1355,56 +1376,56 @@
         <v>2013</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s">
         <v>86</v>
@@ -1415,16 +1436,16 @@
         <v>2014</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s">
         <v>86</v>
@@ -1435,19 +1456,19 @@
         <v>2014</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1455,36 +1476,36 @@
         <v>2014</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -1492,19 +1513,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -1515,36 +1536,36 @@
         <v>2015</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -1552,39 +1573,39 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
@@ -1592,119 +1613,119 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
@@ -1712,27 +1733,67 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2021</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2021</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
         <v>123</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F47" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
-    <sortCondition ref="A2:A41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F43">
+    <sortCondition ref="A2:A43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/call-of-cthulhu-kadokawa/checklist.xlsx
+++ b/call-of-cthulhu-kadokawa/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D822980E-498C-8B42-98BE-5BA26DDEFF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E9D0F6-14BD-594D-86F6-EB4045C8CA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="157">
   <si>
     <t>year</t>
   </si>
@@ -487,6 +487,24 @@
   </si>
   <si>
     <t>nazi_evil_god.jpg</t>
+  </si>
+  <si>
+    <t>新クトゥルフ神話TRPG スタートセット</t>
+  </si>
+  <si>
+    <t>New Cthulhu Myth TRPG Start Set</t>
+  </si>
+  <si>
+    <t>new_cthulhu_myth_start_set.jpg</t>
+  </si>
+  <si>
+    <t>lovecraftian_horrors.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話怪物図鑑</t>
+  </si>
+  <si>
+    <t>S. Petersen's Field Guide to Lovecraftian Horrors</t>
   </si>
 </sst>
 </file>
@@ -838,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714E191-E70D-984A-B485-A0578E9C9933}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1633,19 +1651,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -1653,22 +1671,22 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1676,16 +1694,16 @@
         <v>2018</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F42" t="s">
         <v>44</v>
@@ -1693,22 +1711,22 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1716,36 +1734,36 @@
         <v>2019</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
@@ -1753,19 +1771,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -1773,27 +1791,67 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
+        <v>2020</v>
+      </c>
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>2021</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2021</v>
+      </c>
+      <c r="B49" t="s">
         <v>122</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>128</v>
       </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
         <v>123</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F49" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F43">
-    <sortCondition ref="A2:A43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
+    <sortCondition ref="A2:A44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/call-of-cthulhu-kadokawa/checklist.xlsx
+++ b/call-of-cthulhu-kadokawa/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/call-of-cthulhu-kadokawa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E9D0F6-14BD-594D-86F6-EB4045C8CA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7D3044-4EB6-B34E-933D-36B6260ECA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{81759EC4-D7E7-8642-A464-F1F22DE13120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="160">
   <si>
     <t>year</t>
   </si>
@@ -505,6 +505,15 @@
   </si>
   <si>
     <t>S. Petersen's Field Guide to Lovecraftian Horrors</t>
+  </si>
+  <si>
+    <t>クトゥルフ神話TRPG ミスカトニック大学</t>
+  </si>
+  <si>
+    <t>Miskatonic University</t>
+  </si>
+  <si>
+    <t>miskatonic_u.jpg</t>
   </si>
 </sst>
 </file>
@@ -856,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714E191-E70D-984A-B485-A0578E9C9933}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1434,36 +1443,36 @@
         <v>2013</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
         <v>86</v>
@@ -1474,16 +1483,16 @@
         <v>2014</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F31" t="s">
         <v>86</v>
@@ -1494,16 +1503,16 @@
         <v>2014</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F32" t="s">
         <v>86</v>
@@ -1514,19 +1523,19 @@
         <v>2014</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1534,16 +1543,16 @@
         <v>2014</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -1551,19 +1560,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -1574,16 +1583,16 @@
         <v>2015</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -1594,39 +1603,39 @@
         <v>2015</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1634,16 +1643,16 @@
         <v>2016</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -1654,16 +1663,16 @@
         <v>2016</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -1671,19 +1680,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -1691,22 +1700,22 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1714,16 +1723,16 @@
         <v>2018</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F43" t="s">
         <v>44</v>
@@ -1731,22 +1740,22 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1754,36 +1763,36 @@
         <v>2019</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -1794,39 +1803,39 @@
         <v>2020</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1834,24 +1843,44 @@
         <v>2021</v>
       </c>
       <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2021</v>
+      </c>
+      <c r="B50" t="s">
         <v>122</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>128</v>
       </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
         <v>123</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
-    <sortCondition ref="A2:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F45">
+    <sortCondition ref="A2:A45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
